--- a/src/test/resources/ExcelFiles/SampleData.xlsx
+++ b/src/test/resources/ExcelFiles/SampleData.xlsx
@@ -24,109 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>PassAuthcoExternalAutheoExternalAuthe1</t>
-  </si>
-  <si>
-    <t>AuthcoExternalAuthe1</t>
-  </si>
-  <si>
-    <t>ExternalAuth1</t>
-  </si>
-  <si>
-    <t>PassAuthcoExternalAutheoExternalAuthe2</t>
-  </si>
-  <si>
-    <t>AuthcoExternalAuthe2</t>
-  </si>
-  <si>
-    <t>ExternalAuth2</t>
-  </si>
-  <si>
-    <t>PassAuthcoExternalAutheoExternalAuthe3</t>
-  </si>
-  <si>
-    <t>AuthcoExternalAuthe3</t>
-  </si>
-  <si>
-    <t>ExternalAuth3</t>
-  </si>
-  <si>
-    <t>PassAuthcoExternalAutheoExternalAuthe4</t>
-  </si>
-  <si>
-    <t>AuthcoExternalAuthe4</t>
-  </si>
-  <si>
-    <t>ExternalAuth4</t>
-  </si>
-  <si>
-    <t>PassAuthcoExternalAutheoExternalAuthe5</t>
-  </si>
-  <si>
-    <t>AuthcoExternalAuthe5</t>
-  </si>
-  <si>
-    <t>ExternalAuth5</t>
-  </si>
-  <si>
-    <t>PassAuthcoExternalAutheoExternalAuthe6</t>
-  </si>
-  <si>
-    <t>AuthcoExternalAuthe6</t>
-  </si>
-  <si>
-    <t>ExternalAuth6</t>
-  </si>
-  <si>
-    <t>PassAuthcoExternalAutheoExternalAuthe7</t>
-  </si>
-  <si>
-    <t>AuthcoExternalAuthe7</t>
-  </si>
-  <si>
-    <t>ExternalAuth7</t>
-  </si>
-  <si>
-    <t>PassAuthcoExternalAutheoExternalAuthe8</t>
-  </si>
-  <si>
-    <t>AuthcoExternalAuthe8</t>
-  </si>
-  <si>
-    <t>ExternalAuth8</t>
-  </si>
-  <si>
-    <t>PassAuthcoExternalAutheoExternalAuthe9</t>
-  </si>
-  <si>
-    <t>AuthcoExternalAuthe9</t>
-  </si>
-  <si>
-    <t>ExternalAuth9</t>
-  </si>
-  <si>
-    <t>PassAuthcoExternalAutheoExternalAuthe10</t>
-  </si>
-  <si>
-    <t>AuthcoExternalAuthe10</t>
-  </si>
-  <si>
-    <t>ExternalAuth10</t>
-  </si>
-  <si>
-    <t>PassCode</t>
-  </si>
-  <si>
-    <t>AuthCode</t>
-  </si>
-  <si>
-    <t>ExternalAuth</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>user1@email.com</t>
   </si>
@@ -156,6 +54,96 @@
   </si>
   <si>
     <t>user10@email.com</t>
+  </si>
+  <si>
+    <t>Pass code 1</t>
+  </si>
+  <si>
+    <t>Pass code 2</t>
+  </si>
+  <si>
+    <t>Pass code 3</t>
+  </si>
+  <si>
+    <t>Pass code 4</t>
+  </si>
+  <si>
+    <t>Pass code 5</t>
+  </si>
+  <si>
+    <t>Pass code 6</t>
+  </si>
+  <si>
+    <t>Pass code 7</t>
+  </si>
+  <si>
+    <t>Pass code 8</t>
+  </si>
+  <si>
+    <t>Pass code 9</t>
+  </si>
+  <si>
+    <t>Pass code 10</t>
+  </si>
+  <si>
+    <t>Autentication code 1</t>
+  </si>
+  <si>
+    <t>Autentication code 2</t>
+  </si>
+  <si>
+    <t>Autentication code 3</t>
+  </si>
+  <si>
+    <t>Autentication code 4</t>
+  </si>
+  <si>
+    <t>Autentication code 5</t>
+  </si>
+  <si>
+    <t>Autentication code 6</t>
+  </si>
+  <si>
+    <t>Autentication code 7</t>
+  </si>
+  <si>
+    <t>Autentication code 8</t>
+  </si>
+  <si>
+    <t>Autentication code 9</t>
+  </si>
+  <si>
+    <t>Autentication code 10</t>
+  </si>
+  <si>
+    <t>External auuten 1</t>
+  </si>
+  <si>
+    <t>External auuten 2</t>
+  </si>
+  <si>
+    <t>External auuten 3</t>
+  </si>
+  <si>
+    <t>External auuten 4</t>
+  </si>
+  <si>
+    <t>External auuten 5</t>
+  </si>
+  <si>
+    <t>External auuten 6</t>
+  </si>
+  <si>
+    <t>External auuten 7</t>
+  </si>
+  <si>
+    <t>External auuten 8</t>
+  </si>
+  <si>
+    <t>External auuten 9</t>
+  </si>
+  <si>
+    <t>External auuten 10</t>
   </si>
 </sst>
 </file>
@@ -473,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -489,156 +477,142 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
